--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1.Name</t>
   </si>
@@ -53,33 +53,60 @@
     <t>3.2. Output: The signal that is transmitted to the rear of the vehicle and triggers the buzzer.</t>
   </si>
   <si>
-    <t>4. Use cases</t>
-  </si>
-  <si>
-    <t>4.1. When the driver removes the car key, the system receives the input signal and transmits it to the receiver circuit at the rear of the vehicle.</t>
+    <t>4. Hardware</t>
+  </si>
+  <si>
+    <t>4.1. Microcontroller: Use a ESP32 microcontroller to control the transmitter and receiver modules.</t>
+  </si>
+  <si>
+    <t>4.2. Ignition lock sensor circuit: A contact sensor or switch can be used to detect when the driver removes the key from the ignition.</t>
+  </si>
+  <si>
+    <t>4.3. Wireless signal transmission module: Use RF modules (e.g., nRF24L01, 433MHz RF, or Bluetooth) to transmit signals from the transmitter module to the receiver module.</t>
+  </si>
+  <si>
+    <t>4.4. Wireless signal receiving module: Use RF or Bluetooth sensors to receive signals from the transmitter module.</t>
+  </si>
+  <si>
+    <t>4.5. Buzzer: To emit a warning sound.</t>
+  </si>
+  <si>
+    <t>4.6. Off button: A button easily accessible at the rear of the vehicle for the driver to turn off the warning.</t>
   </si>
   <si>
     <t>5. Functional requirements</t>
   </si>
   <si>
-    <t>5.1.  The transmitter system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1. When the key is inserted to start the vehicle, the system turns off.
+    <t>5.1. Microcontroller</t>
+  </si>
+  <si>
+    <t>5.1.1. Integrate Wi-Fi network for communication between the transmitter and receiver modules.</t>
+  </si>
+  <si>
+    <t>5.1.2. Compatibility with sensors and peripheral modules: The microcontroller must have GPIO pins to communicate with sensors, signal transmission and receiving modules, and other peripheral devices.</t>
+  </si>
+  <si>
+    <t>5.2.  The transmitter module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1. Receive signal from the ignition: The module will receive a signal when the driver removes the key from the ignition.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2. When the key is removed, the system transmits a signal to the receiver circuit.
+    <t xml:space="preserve">5.2.2. Send warning signal: When the driver removes the key, the transmitter module will send a signal to the receiver module placed at the rear of the vehicle.
 </t>
   </si>
   <si>
-    <t>5.2. The receiver system</t>
-  </si>
-  <si>
-    <t>5.2.1. When the signal is received, the receiver circuit triggers the buzzer.</t>
-  </si>
-  <si>
-    <t>5.2.2. When the driver presses the button directly, the horn turns off.</t>
+    <t>5.3. The receiver module</t>
+  </si>
+  <si>
+    <t>5.3.1. Receive signal from the transmitter module: When the receiver module receives a signal from the transmitter module, it will activate the warning buzzer.</t>
+  </si>
+  <si>
+    <t>5.3.2. Activate buzzer: The buzzer will sound continuously to alert the driver about the possibility of leaving children in the vehicle.</t>
+  </si>
+  <si>
+    <t>5.3.3. Off button: The driver must go to the rear of the vehicle and press the off button to stop the buzzer. This requires the driver to check the seats to ensure that no children or passengers have been left behind in the vehicle.</t>
   </si>
   <si>
     <t>6. Non-functional requirements</t>
@@ -116,7 +143,7 @@
     <t>8. Power</t>
   </si>
   <si>
-    <t>8.1. Using 3.3V</t>
+    <t>8.1. 5V or 12V power supply: Powers the microcontroller and the signal transmission/receiving modules, buzzer, and sensors.</t>
   </si>
   <si>
     <t>9. Physical size/weight</t>
@@ -129,6 +156,16 @@
   </si>
   <si>
     <t>9.3. Light weight system &lt; 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Reliability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1. Collision resistance: Ensure the circuit remains safe during light collisions in traffic.
+</t>
+  </si>
+  <si>
+    <t>10.2. Clear sound: The volume should be loud enough for the driver to hear and wake up any children left sleeping in the vehicle, but not overly shrill.</t>
   </si>
 </sst>
 </file>
@@ -752,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,10 +806,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1307,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1402,136 +1460,268 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:13">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" ht="29" customHeight="1" spans="1:10">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" ht="28" customHeight="1" spans="1:12">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" ht="29" customHeight="1" spans="1:18">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
@@ -1539,7 +1729,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1549,21 +1739,106 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" ht="28" customHeight="1" spans="1:8">
+      <c r="A45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:H45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
